--- a/data/financial_statements/soci/SEE.xlsx
+++ b/data/financial_statements/soci/SEE.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -131,9 +248,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -186,12 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -496,144 +607,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>1400000000</v>
+        <v>1400400000</v>
       </c>
       <c r="C2">
         <v>1418000000</v>
       </c>
       <c r="D2">
-        <v>1418000000</v>
+        <v>1417600000</v>
       </c>
       <c r="E2">
-        <v>1532000000</v>
+        <v>1531500000</v>
       </c>
       <c r="F2">
-        <v>1407000000</v>
+        <v>1406700000</v>
       </c>
       <c r="G2">
         <v>1328500000</v>
@@ -739,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>-0.005</v>
+        <v>-0.0045</v>
       </c>
       <c r="C3">
         <v>0.0674</v>
       </c>
       <c r="D3">
-        <v>0.1191</v>
+        <v>0.1188</v>
       </c>
       <c r="E3">
-        <v>0.1425</v>
+        <v>0.1421</v>
       </c>
       <c r="F3">
-        <v>0.1372</v>
+        <v>0.137</v>
       </c>
       <c r="G3">
         <v>0.154</v>
@@ -861,23 +972,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>979000000</v>
+        <v>966800000</v>
       </c>
       <c r="C4">
-        <v>991000000</v>
+        <v>979700000</v>
       </c>
       <c r="D4">
-        <v>943000000</v>
+        <v>940600000</v>
       </c>
       <c r="E4">
-        <v>1067000000</v>
+        <v>1056100000</v>
       </c>
       <c r="F4">
-        <v>1014000000</v>
+        <v>1003000000</v>
       </c>
       <c r="G4">
         <v>927800000</v>
@@ -983,23 +1094,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>422000000</v>
+        <v>433600000</v>
       </c>
       <c r="C5">
-        <v>427000000</v>
+        <v>438300000</v>
       </c>
       <c r="D5">
-        <v>475000000</v>
+        <v>477000000</v>
       </c>
       <c r="E5">
-        <v>464000000</v>
+        <v>475399800</v>
       </c>
       <c r="F5">
-        <v>393000000</v>
+        <v>403700000</v>
       </c>
       <c r="G5">
         <v>400700000</v>
@@ -1105,8 +1216,8 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
         <v>196300000</v>
@@ -1121,7 +1232,7 @@
         <v>201200000</v>
       </c>
       <c r="F6">
-        <v>183000000</v>
+        <v>190300000</v>
       </c>
       <c r="G6">
         <v>192000000</v>
@@ -1227,8 +1338,8 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
         <v>228000000</v>
@@ -1349,8 +1460,8 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
         <v>44000000</v>
@@ -1390,23 +1501,23 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>2000000</v>
+        <v>40900000</v>
       </c>
       <c r="C9">
-        <v>2000000</v>
+        <v>39500000</v>
       </c>
       <c r="D9">
-        <v>1000000</v>
+        <v>38900000</v>
       </c>
       <c r="E9">
-        <v>1000000</v>
+        <v>40200000</v>
       </c>
       <c r="F9">
-        <v>2000000</v>
+        <v>42400000</v>
       </c>
       <c r="G9">
         <v>42100000</v>
@@ -1512,23 +1623,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>-2000000</v>
+        <v>-44000000</v>
       </c>
       <c r="C10">
-        <v>29000000</v>
+        <v>-69600000</v>
       </c>
       <c r="D10">
-        <v>11000000</v>
+        <v>-53100000</v>
       </c>
       <c r="E10">
-        <v>72000000</v>
+        <v>-53200000</v>
       </c>
       <c r="F10">
-        <v>10000000</v>
+        <v>-46900000</v>
       </c>
       <c r="G10">
         <v>-42500000</v>
@@ -1634,23 +1745,23 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>184000000</v>
       </c>
       <c r="C11">
-        <v>157000000</v>
+        <v>157100000</v>
       </c>
       <c r="D11">
         <v>209000000</v>
       </c>
       <c r="E11">
-        <v>247000000</v>
+        <v>247000100</v>
       </c>
       <c r="F11">
-        <v>154000000</v>
+        <v>154400000</v>
       </c>
       <c r="G11">
         <v>154400000</v>
@@ -1756,23 +1867,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>51000000</v>
+        <v>51400000</v>
       </c>
       <c r="C12">
-        <v>43000000</v>
+        <v>42700000</v>
       </c>
       <c r="D12">
-        <v>59000000</v>
+        <v>59400000</v>
       </c>
       <c r="E12">
         <v>78000000</v>
       </c>
       <c r="F12">
-        <v>47000000</v>
+        <v>46600000</v>
       </c>
       <c r="G12">
         <v>45800000</v>
@@ -1878,8 +1989,8 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
         <v>132600000</v>
@@ -2000,8 +2111,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2035,23 +2146,23 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B15">
-        <v>133000000</v>
+        <v>134200000</v>
       </c>
       <c r="C15">
-        <v>114000000</v>
+        <v>113900000</v>
       </c>
       <c r="D15">
-        <v>150000000</v>
+        <v>149200000</v>
       </c>
       <c r="E15">
-        <v>169000000</v>
+        <v>180900000</v>
       </c>
       <c r="F15">
-        <v>108000000</v>
+        <v>107700000</v>
       </c>
       <c r="G15">
         <v>108100000</v>
@@ -2157,23 +2268,23 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0.92</v>
       </c>
       <c r="C16">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E16">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="F16">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="G16">
         <v>0.71</v>
@@ -2279,8 +2390,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0.92</v>
@@ -2401,23 +2512,23 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
-        <v>145000000</v>
+        <v>145200000</v>
       </c>
       <c r="C18">
         <v>146000000</v>
       </c>
       <c r="D18">
-        <v>148000000</v>
+        <v>147600000</v>
       </c>
       <c r="E18">
-        <v>148000000</v>
+        <v>150900000</v>
       </c>
       <c r="F18">
-        <v>150000000</v>
+        <v>149900000</v>
       </c>
       <c r="G18">
         <v>151400000</v>
@@ -2523,23 +2634,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>147000000</v>
+        <v>146600000</v>
       </c>
       <c r="C19">
-        <v>148000000</v>
+        <v>147500000</v>
       </c>
       <c r="D19">
-        <v>150000000</v>
+        <v>149500000</v>
       </c>
       <c r="E19">
-        <v>150000000</v>
+        <v>152400000</v>
       </c>
       <c r="F19">
-        <v>151000000</v>
+        <v>151400000</v>
       </c>
       <c r="G19">
         <v>152700000</v>
@@ -2645,23 +2756,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>0.3014</v>
+        <v>0.3096</v>
       </c>
       <c r="C20">
-        <v>0.3011</v>
+        <v>0.3091</v>
       </c>
       <c r="D20">
-        <v>0.335</v>
+        <v>0.3365</v>
       </c>
       <c r="E20">
-        <v>0.3029</v>
+        <v>0.3104</v>
       </c>
       <c r="F20">
-        <v>0.2793</v>
+        <v>0.287</v>
       </c>
       <c r="G20">
         <v>0.3016</v>
@@ -2767,17 +2878,17 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>0.1629</v>
+        <v>0.1628</v>
       </c>
       <c r="C21">
         <v>0.1599</v>
       </c>
       <c r="D21">
-        <v>0.1848</v>
+        <v>0.1849</v>
       </c>
       <c r="E21">
         <v>0.196</v>
@@ -2889,23 +3000,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.1314</v>
       </c>
       <c r="C22">
-        <v>0.1107</v>
+        <v>0.1108</v>
       </c>
       <c r="D22">
         <v>0.1474</v>
       </c>
       <c r="E22">
-        <v>0.1612</v>
+        <v>0.1613</v>
       </c>
       <c r="F22">
-        <v>0.1095</v>
+        <v>0.1098</v>
       </c>
       <c r="G22">
         <v>0.1162</v>
@@ -3011,23 +3122,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>0.095</v>
+        <v>0.0958</v>
       </c>
       <c r="C23">
-        <v>0.0804</v>
+        <v>0.0803</v>
       </c>
       <c r="D23">
-        <v>0.1058</v>
+        <v>0.1052</v>
       </c>
       <c r="E23">
-        <v>0.1103</v>
+        <v>0.1181</v>
       </c>
       <c r="F23">
-        <v>0.07679999999999999</v>
+        <v>0.0766</v>
       </c>
       <c r="G23">
         <v>0.0814</v>
@@ -3133,23 +3244,23 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
-        <v>278000000</v>
+        <v>274900000</v>
       </c>
       <c r="C24">
-        <v>281000000</v>
+        <v>272300000</v>
       </c>
       <c r="D24">
-        <v>317000000</v>
+        <v>307400000</v>
       </c>
       <c r="E24">
-        <v>311000000</v>
+        <v>350699700</v>
       </c>
       <c r="F24">
-        <v>255000000</v>
+        <v>245999900</v>
       </c>
       <c r="G24">
         <v>242600000</v>
@@ -3255,8 +3366,8 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
         <v>228000000</v>
@@ -3377,8 +3488,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>132600000</v>
@@ -3499,8 +3610,8 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
         <v>1600000</v>
@@ -3597,23 +3708,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>133000000</v>
+        <v>134200000</v>
       </c>
       <c r="C28">
-        <v>114000000</v>
+        <v>113900000</v>
       </c>
       <c r="D28">
-        <v>150000000</v>
+        <v>149200000</v>
       </c>
       <c r="E28">
-        <v>169000000</v>
+        <v>180900000</v>
       </c>
       <c r="F28">
-        <v>108000000</v>
+        <v>107700000</v>
       </c>
       <c r="G28">
         <v>108100000</v>
@@ -3719,8 +3830,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0.91</v>
@@ -3841,8 +3952,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0.91</v>
@@ -3963,8 +4074,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0.01</v>
@@ -4061,8 +4172,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0.01</v>
@@ -4159,8 +4270,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
         <v>0.9242</v>
@@ -4281,8 +4392,8 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0.9154</v>
@@ -4403,8 +4514,8 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
         <v>146600000</v>
@@ -4525,23 +4636,23 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
-        <v>0.1986</v>
+        <v>0.1963</v>
       </c>
       <c r="C36">
-        <v>0.1982</v>
+        <v>0.192</v>
       </c>
       <c r="D36">
-        <v>0.2236</v>
+        <v>0.2168</v>
       </c>
       <c r="E36">
-        <v>0.203</v>
+        <v>0.229</v>
       </c>
       <c r="F36">
-        <v>0.1812</v>
+        <v>0.1749</v>
       </c>
       <c r="G36">
         <v>0.1826</v>
@@ -4647,11 +4758,11 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
-        <v>0.0771</v>
+        <v>0.077</v>
       </c>
       <c r="C37">
         <v>0.116</v>
@@ -4660,7 +4771,7 @@
         <v>0.0341</v>
       </c>
       <c r="E37">
-        <v>0.2168</v>
+        <v>0.2169</v>
       </c>
       <c r="F37">
         <v>0.1265</v>
